--- a/Assets/06.Table/FoxFirePass.xlsx
+++ b/Assets/06.Table/FoxFirePass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A05E07-E055-409D-8E1B-25168670F5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20711D-E043-44A1-8FAE-49B41A7AD377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxFirePass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1324,6 +1324,406 @@
         <v>9026</v>
       </c>
       <c r="F41" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>205000000</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>210000000</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>215000000</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>220000000</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>225000000</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>230000000</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>235000000</v>
+      </c>
+      <c r="C48" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>240000000</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>245000000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>250000000</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>255000000</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>260000000</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>265000000</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>270000000</v>
+      </c>
+      <c r="C55" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F55" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>275000000</v>
+      </c>
+      <c r="C56" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F56" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>280000000</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>285000000</v>
+      </c>
+      <c r="C58" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>290000000</v>
+      </c>
+      <c r="C59" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>295000000</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>300000000</v>
+      </c>
+      <c r="C61" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
     </row>
@@ -1382,15 +1782,15 @@
       </c>
       <c r="C4" s="1">
         <f>SUMIF(FoxFirePass!C:C,A4,FoxFirePass!D:D)</f>
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(FoxFirePass!C:C,A4,FoxFirePass!F:F)</f>
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="E4" s="1">
         <f>C4+D4</f>
-        <v>240000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
